--- a/org.wxd.boot.batis/src/test/resources/范例.xlsx
+++ b/org.wxd.boot.batis/src/test/resources/范例.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_itemshop_vip" sheetId="4" r:id="rId1"/>
+    <sheet name="说明" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,12 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
-  <si>
-    <t>tr_n</t>
-  </si>
-  <si>
-    <t>tr_y</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+  <si>
+    <t>vip礼包</t>
   </si>
   <si>
     <t>all</t>
@@ -260,27 +258,6 @@
   </si>
   <si>
     <t>1:101011001:1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">支持的类型 bool ,byte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bool </t>
-  </si>
-  <si>
-    <t xml:space="preserve">byte </t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[][] </t>
-  </si>
-  <si>
-    <t>long long[] long[][]</t>
-  </si>
-  <si>
-    <t>float float[] float[][]</t>
   </si>
 </sst>
 </file>
@@ -459,12 +436,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -939,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,9 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1310,13 +1284,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
@@ -1335,136 +1309,122 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1472,13 +1432,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1490,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1498,13 +1458,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1516,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1524,13 +1484,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1542,60 +1502,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="11:11">
-      <c r="K10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="11:11">
-      <c r="K11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="11:11">
-      <c r="K12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="11:11">
-      <c r="K13" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="11:11">
-      <c r="K14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="11:11">
-      <c r="K15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="11:11">
-      <c r="K16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1629,4 +1536,20 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>